--- a/sdn_adisana_4_02102017.xlsx
+++ b/sdn_adisana_4_02102017.xlsx
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,10 +240,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,9 +253,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
@@ -558,11 +566,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -574,11 +582,11 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1">
       <c r="A4" s="2">
@@ -590,13 +598,13 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
       <c r="A5" s="2">
@@ -608,10 +616,10 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -625,10 +633,10 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -645,7 +653,7 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -662,7 +670,7 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -679,7 +687,7 @@
       <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
